--- a/DOB (1).xlsx
+++ b/DOB (1).xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC052E01-4DC4-4237-839B-531BE231BD8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ideasession\Documents\training-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7082CDC-76F4-4DC8-BD3E-CDEBC2582C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="435" windowWidth="18915" windowHeight="7965" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOB" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -120,9 +125,6 @@
   </si>
   <si>
     <t>Rajkumar Raveendran</t>
-  </si>
-  <si>
-    <t>september 11,1994</t>
   </si>
 </sst>
 </file>
@@ -132,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,13 +585,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -611,7 +613,7 @@
         <v>30273</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -622,7 +624,7 @@
         <v>30286</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -633,7 +635,7 @@
         <v>30479</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -644,7 +646,7 @@
         <v>33135</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -655,7 +657,7 @@
         <v>32105</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -666,7 +668,7 @@
         <v>35423</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -677,7 +679,7 @@
         <v>29379</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -688,7 +690,7 @@
         <v>35365</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -699,7 +701,7 @@
         <v>34528</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -710,7 +712,7 @@
         <v>34636</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -721,7 +723,7 @@
         <v>33547</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -732,7 +734,7 @@
         <v>36339</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -743,7 +745,7 @@
         <v>35698</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -754,7 +756,7 @@
         <v>36319</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -765,7 +767,7 @@
         <v>35616</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -776,7 +778,7 @@
         <v>35769</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -787,7 +789,7 @@
         <v>33087</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -798,7 +800,7 @@
         <v>36156</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -809,7 +811,7 @@
         <v>36358</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -820,7 +822,7 @@
         <v>30689</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -831,7 +833,7 @@
         <v>36293</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -842,7 +844,7 @@
         <v>36289</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -853,7 +855,7 @@
         <v>36135</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -864,7 +866,7 @@
         <v>30411</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -886,17 +888,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCB0B0B-F785-4704-923F-F087868F9CDB}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="21" customFormat="1" ht="14.25">
+    <row r="1" spans="1:3" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
@@ -907,7 +909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -918,7 +920,7 @@
         <v>30689</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -929,7 +931,7 @@
         <v>30411</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -940,7 +942,7 @@
         <v>36289</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -951,7 +953,7 @@
         <v>36293</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -962,7 +964,7 @@
         <v>34472</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -973,7 +975,7 @@
         <v>29379</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -984,214 +986,100 @@
         <v>36319</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
-      <c r="A10" s="14">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="20">
-        <v>30479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="14">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="16">
-        <v>36339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="14">
-        <v>10</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="16">
-        <v>35616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="14">
-        <v>11</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="16">
-        <v>34528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75">
-      <c r="A14" s="14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="16">
-        <v>36358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="14">
-        <v>13</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="16">
-        <v>33087</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="14">
-        <v>14</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="20">
-        <v>33135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="14">
-        <v>15</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="16">
-        <v>35698</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="14">
-        <v>16</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="16">
-        <v>35365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="14">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="16">
-        <v>34636</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="14">
-        <v>18</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="16">
-        <v>33547</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="14">
-        <v>19</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="20">
-        <v>30273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="14">
-        <v>20</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="16">
-        <v>32105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="14">
-        <v>21</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="16">
-        <v>30286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75">
-      <c r="A24" s="14">
-        <v>22</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="16">
-        <v>35769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="14">
-        <v>23</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="16">
-        <v>36135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75">
-      <c r="A26" s="14">
-        <v>24</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="20">
-        <v>35423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75">
-      <c r="A27" s="14">
-        <v>25</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="16">
-        <v>36156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75">
-      <c r="A28" s="14">
-        <v>26</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>31</v>
-      </c>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
